--- a/nuclei/_models.xlsx
+++ b/nuclei/_models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kicjo\Desktop\my-anns\nuclei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB25D5C-4252-43DC-9847-F50B1DA32931}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E408351-8A0B-4C9C-9F22-6A18800E9181}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16560" yWindow="-69" windowWidth="16663" windowHeight="8246" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Inputs</t>
   </si>
@@ -79,6 +79,18 @@
   </si>
   <si>
     <t>single</t>
+  </si>
+  <si>
+    <t>2 inputs 2 outputs</t>
+  </si>
+  <si>
+    <t>2 inputs mass output</t>
+  </si>
+  <si>
+    <t>4 input mass output</t>
+  </si>
+  <si>
+    <t>4 inputs 2 outputs</t>
   </si>
 </sst>
 </file>
@@ -413,11 +425,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
@@ -491,50 +506,50 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
